--- a/product-definitions/spreadsheet/aerosol-concentration.xlsx
+++ b/product-definitions/spreadsheet/aerosol-concentration.xlsx
@@ -12,21 +12,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
-  <si>
-    <t>Variable</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>Attribute</t>
   </si>
   <si>
     <t>Length</t>
   </si>
   <si>
     <t>units</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Attribute</t>
   </si>
   <si>
     <t>Value</t>
@@ -83,18 +83,7 @@
     <t>cell_methods</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">time: </t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FFFF0000"/>
-      </rPr>
-      <t>?</t>
-    </r>
-  </si>
-  <si>
-    <t>mean or point</t>
+    <t>time: mean or time: point</t>
   </si>
   <si>
     <t>coordinates</t>
@@ -139,12 +128,12 @@
     </font>
     <font>
       <b/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -178,25 +167,25 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
@@ -220,6 +209,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -268,125 +260,125 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
     </row>
     <row r="2" ht="12.0" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" ht="12.0" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" ht="12.0" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" ht="12.0" customHeight="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" ht="12.0" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" ht="12.0" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="6"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" ht="12.0" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" ht="12.0" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" ht="12.0" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" ht="12.0" customHeight="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" ht="12.0" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" ht="12.0" customHeight="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" ht="12.0" customHeight="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" ht="12.0" customHeight="1">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" ht="12.0" customHeight="1">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" ht="12.0" customHeight="1">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" ht="12.0" customHeight="1">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" ht="12.0" customHeight="1">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" ht="12.0" customHeight="1">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" ht="12.0" customHeight="1">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -414,22 +406,22 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="7"/>
@@ -457,12 +449,12 @@
       <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="2"/>
       <c r="C2" s="9"/>
     </row>
     <row r="3" ht="12.0" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -470,8 +462,8 @@
       </c>
     </row>
     <row r="4" ht="12.0" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -479,17 +471,17 @@
       </c>
     </row>
     <row r="5" ht="12.0" customHeight="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
-        <v>4</v>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" ht="12.0" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -497,8 +489,8 @@
       </c>
     </row>
     <row r="7" ht="12.0" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -506,8 +498,8 @@
       </c>
     </row>
     <row r="8" ht="12.0" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="11">
@@ -515,8 +507,8 @@
       </c>
     </row>
     <row r="9" ht="12.0" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="12" t="s">
@@ -524,8 +516,8 @@
       </c>
     </row>
     <row r="10" ht="12.0" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="12" t="s">
@@ -533,51 +525,49 @@
       </c>
     </row>
     <row r="11" ht="12.0" customHeight="1">
-      <c r="A11" s="4"/>
+      <c r="A11" s="2"/>
       <c r="B11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="14"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7" t="s">
+    </row>
+    <row r="12" ht="12.0" customHeight="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" ht="12.0" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="9" t="s">
+    </row>
+    <row r="13" ht="12.0" customHeight="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="16"/>
+    </row>
+    <row r="14" ht="12.0" customHeight="1">
+      <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" ht="12.0" customHeight="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="15"/>
-    </row>
-    <row r="14" ht="12.0" customHeight="1">
-      <c r="A14" s="4" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="16"/>
+    </row>
+    <row r="15" ht="12.0" customHeight="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
-    </row>
-    <row r="15" ht="12.0" customHeight="1">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="16" ht="12.0" customHeight="1">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="9" t="s">
@@ -585,51 +575,51 @@
       </c>
     </row>
     <row r="17" ht="12.0" customHeight="1">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4" t="s">
-        <v>4</v>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="C17" s="9">
         <v>1.0</v>
       </c>
     </row>
     <row r="18" ht="12.0" customHeight="1">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="9"/>
     </row>
     <row r="19" ht="12.0" customHeight="1">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" ht="12.0" customHeight="1">
+      <c r="A20" s="2"/>
+      <c r="B20" s="17" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" ht="12.0" customHeight="1">
-      <c r="A20" s="4"/>
-      <c r="B20" s="16" t="s">
+      <c r="C20" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+    </row>
+    <row r="21" ht="12.0" customHeight="1">
+      <c r="A21" s="2"/>
+      <c r="B21" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21" ht="12.0" customHeight="1">
-      <c r="A21" s="4"/>
-      <c r="B21" s="7" t="s">
+      <c r="C21" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
     </row>
     <row r="22" ht="12.0" customHeight="1"/>
     <row r="23">
